--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ccl21b-Ackr4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ccl21b-Ackr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -88,7 +91,7 @@
     <t>Ackr4</t>
   </si>
   <si>
-    <t>ECs</t>
+    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.134289</v>
+        <v>0.004739</v>
       </c>
       <c r="H2">
-        <v>0.402867</v>
+        <v>0.014217</v>
       </c>
       <c r="I2">
-        <v>0.3678949098679525</v>
+        <v>0.02588570741885795</v>
       </c>
       <c r="J2">
-        <v>0.3678949098679524</v>
+        <v>0.02588570741885795</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.2315733333333333</v>
+        <v>0.1143813333333333</v>
       </c>
       <c r="N2">
-        <v>0.69472</v>
+        <v>0.343144</v>
       </c>
       <c r="O2">
-        <v>0.2371078251520917</v>
+        <v>0.128300337591142</v>
       </c>
       <c r="P2">
-        <v>0.2371078251520917</v>
+        <v>0.1283003375911419</v>
       </c>
       <c r="Q2">
-        <v>0.03109775136</v>
+        <v>0.0005420531386666667</v>
       </c>
       <c r="R2">
-        <v>0.27987976224</v>
+        <v>0.004878478248</v>
       </c>
       <c r="S2">
-        <v>0.08723076196331501</v>
+        <v>0.003321145000625002</v>
       </c>
       <c r="T2">
-        <v>0.087230761963315</v>
+        <v>0.003321145000625002</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.134289</v>
+        <v>0.004739</v>
       </c>
       <c r="H3">
-        <v>0.402867</v>
+        <v>0.014217</v>
       </c>
       <c r="I3">
-        <v>0.3678949098679525</v>
+        <v>0.02588570741885795</v>
       </c>
       <c r="J3">
-        <v>0.3678949098679524</v>
+        <v>0.02588570741885795</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +623,22 @@
         <v>2.160286</v>
       </c>
       <c r="O3">
-        <v>0.7373052671097876</v>
+        <v>0.8077233554817153</v>
       </c>
       <c r="P3">
-        <v>0.7373052671097876</v>
+        <v>0.8077233554817151</v>
       </c>
       <c r="Q3">
-        <v>0.09670088221800002</v>
+        <v>0.003412531784666667</v>
       </c>
       <c r="R3">
-        <v>0.8703079399620002</v>
+        <v>0.030712786062</v>
       </c>
       <c r="S3">
-        <v>0.271250854788522</v>
+        <v>0.02090849045537787</v>
       </c>
       <c r="T3">
-        <v>0.2712508547885219</v>
+        <v>0.02090849045537787</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.134289</v>
+        <v>0.004739</v>
       </c>
       <c r="H4">
-        <v>0.402867</v>
+        <v>0.014217</v>
       </c>
       <c r="I4">
-        <v>0.3678949098679525</v>
+        <v>0.02588570741885795</v>
       </c>
       <c r="J4">
-        <v>0.3678949098679524</v>
+        <v>0.02588570741885795</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -676,90 +679,90 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.02498966666666667</v>
+        <v>0.03357866666666667</v>
       </c>
       <c r="N4">
-        <v>0.07496900000000001</v>
+        <v>0.100736</v>
       </c>
       <c r="O4">
-        <v>0.02558690773812063</v>
+        <v>0.03766483694187069</v>
       </c>
       <c r="P4">
-        <v>0.02558690773812063</v>
+        <v>0.03766483694187069</v>
       </c>
       <c r="Q4">
-        <v>0.003355837347000001</v>
+        <v>0.0001591293013333333</v>
       </c>
       <c r="R4">
-        <v>0.030202536123</v>
+        <v>0.001432163712</v>
       </c>
       <c r="S4">
-        <v>0.009413293116115506</v>
+        <v>0.0009749809490562568</v>
       </c>
       <c r="T4">
-        <v>0.009413293116115504</v>
+        <v>0.0009749809490562569</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.230731</v>
+        <v>0.004739</v>
       </c>
       <c r="H5">
-        <v>0.6921930000000001</v>
+        <v>0.014217</v>
       </c>
       <c r="I5">
-        <v>0.6321050901320476</v>
+        <v>0.02588570741885795</v>
       </c>
       <c r="J5">
-        <v>0.6321050901320475</v>
+        <v>0.02588570741885795</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.2315733333333333</v>
+        <v>0.023457</v>
       </c>
       <c r="N5">
-        <v>0.69472</v>
+        <v>0.070371</v>
       </c>
       <c r="O5">
-        <v>0.2371078251520917</v>
+        <v>0.02631146998527222</v>
       </c>
       <c r="P5">
-        <v>0.2371078251520917</v>
+        <v>0.02631146998527222</v>
       </c>
       <c r="Q5">
-        <v>0.05343114677333333</v>
+        <v>0.000111162723</v>
       </c>
       <c r="R5">
-        <v>0.4808803209600001</v>
+        <v>0.001000464507</v>
       </c>
       <c r="S5">
-        <v>0.1498770631887767</v>
+        <v>0.0006810910137988193</v>
       </c>
       <c r="T5">
-        <v>0.1498770631887767</v>
+        <v>0.0006810910137988193</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.230731</v>
+        <v>0.134289</v>
       </c>
       <c r="H6">
-        <v>0.6921930000000001</v>
+        <v>0.402867</v>
       </c>
       <c r="I6">
-        <v>0.6321050901320476</v>
+        <v>0.733523056250478</v>
       </c>
       <c r="J6">
-        <v>0.6321050901320475</v>
+        <v>0.733523056250478</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.7200953333333334</v>
+        <v>0.1143813333333333</v>
       </c>
       <c r="N6">
-        <v>2.160286</v>
+        <v>0.343144</v>
       </c>
       <c r="O6">
-        <v>0.7373052671097876</v>
+        <v>0.128300337591142</v>
       </c>
       <c r="P6">
-        <v>0.7373052671097876</v>
+        <v>0.1283003375911419</v>
       </c>
       <c r="Q6">
-        <v>0.1661483163553334</v>
+        <v>0.015360154872</v>
       </c>
       <c r="R6">
-        <v>1.495334847198</v>
+        <v>0.138241393848</v>
       </c>
       <c r="S6">
-        <v>0.4660544123212658</v>
+        <v>0.09411125574782253</v>
       </c>
       <c r="T6">
-        <v>0.4660544123212657</v>
+        <v>0.09411125574782252</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +832,433 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.134289</v>
+      </c>
+      <c r="H7">
+        <v>0.402867</v>
+      </c>
+      <c r="I7">
+        <v>0.733523056250478</v>
+      </c>
+      <c r="J7">
+        <v>0.733523056250478</v>
+      </c>
+      <c r="K7">
         <v>3</v>
       </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.230731</v>
-      </c>
-      <c r="H7">
-        <v>0.6921930000000001</v>
-      </c>
-      <c r="I7">
-        <v>0.6321050901320476</v>
-      </c>
-      <c r="J7">
-        <v>0.6321050901320475</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
       <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.7200953333333334</v>
+      </c>
+      <c r="N7">
+        <v>2.160286</v>
+      </c>
+      <c r="O7">
+        <v>0.8077233554817153</v>
+      </c>
+      <c r="P7">
+        <v>0.8077233554817151</v>
+      </c>
+      <c r="Q7">
+        <v>0.09670088221800002</v>
+      </c>
+      <c r="R7">
+        <v>0.8703079399620002</v>
+      </c>
+      <c r="S7">
+        <v>0.592483704317839</v>
+      </c>
+      <c r="T7">
+        <v>0.5924837043178389</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.134289</v>
+      </c>
+      <c r="H8">
+        <v>0.402867</v>
+      </c>
+      <c r="I8">
+        <v>0.733523056250478</v>
+      </c>
+      <c r="J8">
+        <v>0.733523056250478</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
         <v>0.3333333333333333</v>
       </c>
-      <c r="M7">
-        <v>0.02498966666666667</v>
-      </c>
-      <c r="N7">
-        <v>0.07496900000000001</v>
-      </c>
-      <c r="O7">
-        <v>0.02558690773812063</v>
-      </c>
-      <c r="P7">
-        <v>0.02558690773812063</v>
-      </c>
-      <c r="Q7">
-        <v>0.005765890779666668</v>
-      </c>
-      <c r="R7">
-        <v>0.05189301701700001</v>
-      </c>
-      <c r="S7">
-        <v>0.01617361462200513</v>
-      </c>
-      <c r="T7">
-        <v>0.01617361462200513</v>
+      <c r="M8">
+        <v>0.03357866666666667</v>
+      </c>
+      <c r="N8">
+        <v>0.100736</v>
+      </c>
+      <c r="O8">
+        <v>0.03766483694187069</v>
+      </c>
+      <c r="P8">
+        <v>0.03766483694187069</v>
+      </c>
+      <c r="Q8">
+        <v>0.004509245568000001</v>
+      </c>
+      <c r="R8">
+        <v>0.04058321011200001</v>
+      </c>
+      <c r="S8">
+        <v>0.02762802630677689</v>
+      </c>
+      <c r="T8">
+        <v>0.02762802630677689</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.134289</v>
+      </c>
+      <c r="H9">
+        <v>0.402867</v>
+      </c>
+      <c r="I9">
+        <v>0.733523056250478</v>
+      </c>
+      <c r="J9">
+        <v>0.733523056250478</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.023457</v>
+      </c>
+      <c r="N9">
+        <v>0.070371</v>
+      </c>
+      <c r="O9">
+        <v>0.02631146998527222</v>
+      </c>
+      <c r="P9">
+        <v>0.02631146998527222</v>
+      </c>
+      <c r="Q9">
+        <v>0.003150017073000001</v>
+      </c>
+      <c r="R9">
+        <v>0.028350153657</v>
+      </c>
+      <c r="S9">
+        <v>0.0193000698780396</v>
+      </c>
+      <c r="T9">
+        <v>0.0193000698780396</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.04404599999999999</v>
+      </c>
+      <c r="H10">
+        <v>0.132138</v>
+      </c>
+      <c r="I10">
+        <v>0.2405912363306641</v>
+      </c>
+      <c r="J10">
+        <v>0.2405912363306641</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.1143813333333333</v>
+      </c>
+      <c r="N10">
+        <v>0.343144</v>
+      </c>
+      <c r="O10">
+        <v>0.128300337591142</v>
+      </c>
+      <c r="P10">
+        <v>0.1283003375911419</v>
+      </c>
+      <c r="Q10">
+        <v>0.005038040208</v>
+      </c>
+      <c r="R10">
+        <v>0.04534236187199999</v>
+      </c>
+      <c r="S10">
+        <v>0.03086793684269442</v>
+      </c>
+      <c r="T10">
+        <v>0.03086793684269441</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.04404599999999999</v>
+      </c>
+      <c r="H11">
+        <v>0.132138</v>
+      </c>
+      <c r="I11">
+        <v>0.2405912363306641</v>
+      </c>
+      <c r="J11">
+        <v>0.2405912363306641</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.7200953333333334</v>
+      </c>
+      <c r="N11">
+        <v>2.160286</v>
+      </c>
+      <c r="O11">
+        <v>0.8077233554817153</v>
+      </c>
+      <c r="P11">
+        <v>0.8077233554817151</v>
+      </c>
+      <c r="Q11">
+        <v>0.031717319052</v>
+      </c>
+      <c r="R11">
+        <v>0.2854558714679999</v>
+      </c>
+      <c r="S11">
+        <v>0.1943311607084983</v>
+      </c>
+      <c r="T11">
+        <v>0.1943311607084983</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.04404599999999999</v>
+      </c>
+      <c r="H12">
+        <v>0.132138</v>
+      </c>
+      <c r="I12">
+        <v>0.2405912363306641</v>
+      </c>
+      <c r="J12">
+        <v>0.2405912363306641</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.03357866666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.100736</v>
+      </c>
+      <c r="O12">
+        <v>0.03766483694187069</v>
+      </c>
+      <c r="P12">
+        <v>0.03766483694187069</v>
+      </c>
+      <c r="Q12">
+        <v>0.001479005952</v>
+      </c>
+      <c r="R12">
+        <v>0.013311053568</v>
+      </c>
+      <c r="S12">
+        <v>0.009061829686037536</v>
+      </c>
+      <c r="T12">
+        <v>0.009061829686037536</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.04404599999999999</v>
+      </c>
+      <c r="H13">
+        <v>0.132138</v>
+      </c>
+      <c r="I13">
+        <v>0.2405912363306641</v>
+      </c>
+      <c r="J13">
+        <v>0.2405912363306641</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.023457</v>
+      </c>
+      <c r="N13">
+        <v>0.070371</v>
+      </c>
+      <c r="O13">
+        <v>0.02631146998527222</v>
+      </c>
+      <c r="P13">
+        <v>0.02631146998527222</v>
+      </c>
+      <c r="Q13">
+        <v>0.001033187022</v>
+      </c>
+      <c r="R13">
+        <v>0.009298683197999999</v>
+      </c>
+      <c r="S13">
+        <v>0.006330309093433802</v>
+      </c>
+      <c r="T13">
+        <v>0.006330309093433802</v>
       </c>
     </row>
   </sheetData>
